--- a/players_stats/Jordan Hamilton.xlsx
+++ b/players_stats/Jordan Hamilton.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,104 +552,110 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1970-71</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>84</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
       <c r="J2" t="n">
-        <v>2564</v>
+        <v>258</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>1184</v>
+        <v>111</v>
       </c>
       <c r="M2" t="n">
-        <v>0.422</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="P2" t="n">
-        <v>0.298</v>
+        <v>0.362</v>
       </c>
       <c r="Q2" t="n">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="R2" t="n">
-        <v>899</v>
+        <v>64</v>
       </c>
       <c r="S2" t="n">
-        <v>0.462</v>
+        <v>0.484</v>
       </c>
       <c r="T2" t="n">
-        <v>0.458</v>
+        <v>0.509</v>
       </c>
       <c r="U2" t="n">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>0.835</v>
+        <v>0.4</v>
       </c>
       <c r="X2" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="n">
-        <v>365</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
       <c r="AD2" t="n">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>1318</v>
+        <v>115</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -658,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -670,104 +676,110 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1971-72</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>397</v>
+      </c>
+      <c r="K3" t="n">
+        <v>84</v>
+      </c>
+      <c r="L3" t="n">
+        <v>201</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="N3" t="n">
+        <v>27</v>
+      </c>
+      <c r="O3" t="n">
+        <v>73</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>128</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
+        <v>26</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA3" t="n">
         <v>23</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>82</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1959</v>
-      </c>
-      <c r="K3" t="n">
-        <v>317</v>
-      </c>
-      <c r="L3" t="n">
-        <v>791</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="N3" t="n">
-        <v>46</v>
-      </c>
-      <c r="O3" t="n">
-        <v>132</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>271</v>
-      </c>
-      <c r="R3" t="n">
-        <v>659</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="U3" t="n">
-        <v>201</v>
-      </c>
-      <c r="V3" t="n">
-        <v>256</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="X3" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>153</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>194</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
       <c r="AD3" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>881</v>
+        <v>208</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -776,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -788,104 +800,110 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1972-73</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
       <c r="J4" t="n">
-        <v>2359</v>
+        <v>1019</v>
       </c>
       <c r="K4" t="n">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="L4" t="n">
-        <v>902</v>
+        <v>376</v>
       </c>
       <c r="M4" t="n">
-        <v>0.41</v>
+        <v>0.391</v>
       </c>
       <c r="N4" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P4" t="n">
-        <v>0.346</v>
+        <v>0.354</v>
       </c>
       <c r="Q4" t="n">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="R4" t="n">
-        <v>711</v>
+        <v>178</v>
       </c>
       <c r="S4" t="n">
-        <v>0.428</v>
+        <v>0.433</v>
       </c>
       <c r="T4" t="n">
-        <v>0.447</v>
+        <v>0.484</v>
       </c>
       <c r="U4" t="n">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="V4" t="n">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7979999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>194</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="n">
         <v>46</v>
       </c>
-      <c r="Y4" t="n">
-        <v>169</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>215</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>325</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>143</v>
-      </c>
       <c r="AE4" t="n">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="n">
-        <v>1015</v>
+        <v>404</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -894,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -906,108 +924,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1973-74</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>73</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
       <c r="J5" t="n">
-        <v>1961</v>
+        <v>670</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>99</v>
       </c>
       <c r="L5" t="n">
-        <v>834</v>
+        <v>254</v>
       </c>
       <c r="M5" t="n">
-        <v>0.397</v>
+        <v>0.39</v>
       </c>
       <c r="N5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O5" t="n">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P5" t="n">
-        <v>0.257</v>
+        <v>0.349</v>
       </c>
       <c r="Q5" t="n">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="R5" t="n">
-        <v>690</v>
+        <v>125</v>
       </c>
       <c r="S5" t="n">
-        <v>0.426</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.419</v>
+        <v>0.478</v>
       </c>
       <c r="U5" t="n">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Z5" t="n">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="n">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="AF5" t="n">
-        <v>816</v>
+        <v>266</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1016,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1028,108 +1048,110 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1973-74</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>349</v>
+      </c>
+      <c r="K6" t="n">
+        <v>48</v>
+      </c>
+      <c r="L6" t="n">
+        <v>122</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="N6" t="n">
         <v>25</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SAA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>43</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>1415</v>
-      </c>
-      <c r="K6" t="n">
-        <v>228</v>
-      </c>
-      <c r="L6" t="n">
-        <v>584</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="U6" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" t="n">
+        <v>20</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
         <v>19</v>
       </c>
-      <c r="O6" t="n">
-        <v>86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>209</v>
-      </c>
-      <c r="R6" t="n">
-        <v>498</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="U6" t="n">
-        <v>92</v>
-      </c>
-      <c r="V6" t="n">
-        <v>110</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="X6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>116</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>162</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>82</v>
-      </c>
       <c r="AE6" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>567</v>
+        <v>138</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1138,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1150,108 +1172,108 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1973-74</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
       <c r="J7" t="n">
-        <v>546</v>
+        <v>122</v>
       </c>
       <c r="K7" t="n">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="M7" t="n">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>0.31</v>
+        <v>0.476</v>
       </c>
       <c r="Q7" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="T7" t="n">
-        <v>0.448</v>
+        <v>0.5429999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>33</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>4</v>
       </c>
-      <c r="AD7" t="n">
-        <v>30</v>
-      </c>
       <c r="AE7" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1260,7 +1282,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1272,117 +1294,119 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1974-75</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>304</v>
+      </c>
+      <c r="K8" t="n">
+        <v>49</v>
+      </c>
+      <c r="L8" t="n">
+        <v>116</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>71</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="U8" t="n">
+        <v>14</v>
+      </c>
+      <c r="V8" t="n">
+        <v>21</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>125</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
         <v>26</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KEN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>124</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>12</v>
-      </c>
-      <c r="R8" t="n">
-        <v>35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 178</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 72 </t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
-        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -1394,108 +1418,104 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1975-76</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>UTS</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21</v>
+      </c>
       <c r="J9" t="n">
-        <v>131</v>
+        <v>2100</v>
       </c>
       <c r="K9" t="n">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>78</v>
+        <v>839</v>
       </c>
       <c r="M9" t="n">
-        <v>0.397</v>
+        <v>0.408</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="O9" t="n">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="P9" t="n">
-        <v>0.286</v>
+        <v>0.357</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="R9" t="n">
-        <v>57</v>
+        <v>455</v>
       </c>
       <c r="S9" t="n">
-        <v>0.439</v>
+        <v>0.451</v>
       </c>
       <c r="T9" t="n">
-        <v>0.436</v>
+        <v>0.489</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6920000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>429</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="n">
-        <v>77</v>
+        <v>890</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1504,123 +1524,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>344</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>9098</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1564</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3829</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="N10" t="n">
-        <v>243</v>
-      </c>
-      <c r="O10" t="n">
-        <v>778</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1321</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3051</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="U10" t="n">
-        <v>774</v>
-      </c>
-      <c r="V10" t="n">
-        <v>959</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="X10" t="n">
-        <v>230</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>654</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>884</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1208</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>88</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>518</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>907</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4145</v>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 178</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 72 </t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
